--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t xml:space="preserve">Appendix 63
 </t>
@@ -45,7 +45,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-015</t>
+    <t>2020-021</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -78,31 +78,22 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>S629</t>
+    <t>S595</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">TV Cable Box </t>
-  </si>
-  <si>
-    <t>S631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Television Bracket </t>
-  </si>
-  <si>
-    <t>S614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension (3 gang, 6 meters) </t>
+    <t>Token Jacket
+Material: Microfiber
+Sizes: XS to XXL
+Color</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Procurement of  Supplies to be used in Regional Office    </t>
+    <t xml:space="preserve">Procurement of  Roll-out of PDEA Operations and Report Management Information System (PORMIS) for PDEA Region IV-A on March 18 to 20, 2020 </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -123,7 +114,7 @@
     <t>Printed Name:</t>
   </si>
   <si>
-    <t>ELIAS F. FERNANDEZ JR.</t>
+    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>BEZALEEL O. SOLTURA</t>
@@ -370,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="222">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -454,54 +445,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1113,66 +1056,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1482,7 +1365,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1661,53 +1544,33 @@
         <v>22</v>
       </c>
       <c r="D12" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="32"/>
       <c r="G12" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="43"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="41">
-        <v>1</v>
-      </c>
+      <c r="G13" s="41"/>
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="47">
-        <v>15</v>
-      </c>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="51"/>
       <c r="F14" s="48"/>
-      <c r="G14" s="49">
-        <v>15</v>
-      </c>
+      <c r="G14" s="49"/>
       <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:9">
@@ -1841,172 +1704,172 @@
       <c r="H27" s="154"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="156"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="162"/>
+      <c r="A28" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="165"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="169"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="164"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="171"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
       <c r="F29" s="168"/>
-      <c r="G29" s="169"/>
+      <c r="G29" s="168"/>
       <c r="H29" s="170"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="157"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="177"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="158"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="178"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="159"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="179"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="160"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="180"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="183" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="185" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="186"/>
+      <c r="F34" s="188" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="179" t="s">
+      <c r="G34" s="189"/>
+      <c r="H34" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="185"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="172"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="186"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="173"/>
-      <c r="B32" s="187"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="193"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="174"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="194"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="175"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="195"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="176"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+      <c r="C35" s="184"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="E35" s="187"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="196"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="192"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="197"/>
-      <c r="B36" s="198"/>
-      <c r="C36" s="199" t="s">
+      <c r="A36" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="201" t="s">
+      <c r="B36" s="199"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="198"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="202"/>
-      <c r="F36" s="204" t="s">
+      <c r="B37" s="207"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="205"/>
-      <c r="H36" s="207" t="s">
+      <c r="E37" s="204"/>
+      <c r="F37" s="202" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="177"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="208"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="206"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="209" t="s">
+      <c r="A38" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="215"/>
-      <c r="C38" s="211"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="212"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="214"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="209" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="211"/>
+      <c r="F38" s="209" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="212"/>
+      <c r="H38" s="213"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="216" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="223"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="217" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="218" t="s">
+      <c r="A39" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="221"/>
-      <c r="H39" s="222"/>
+      <c r="B39" s="221"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="220"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="224" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="230"/>
-      <c r="C40" s="226"/>
-      <c r="D40" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="227"/>
-      <c r="F40" s="225" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="228"/>
-      <c r="H40" s="229"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="231" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="237"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="234"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="235"/>
-      <c r="H41" s="236"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="24"/>
@@ -3847,16 +3710,16 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:H29"/>
     <mergeCell ref="B30:H31"/>
     <mergeCell ref="B32:H33"/>
-    <mergeCell ref="B34:H35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0.5" footer="0.5"/>

--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -45,7 +45,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-021</t>
+    <t>2020-24</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -78,22 +78,21 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>S595</t>
+    <t>S334</t>
   </si>
   <si>
-    <t>piece</t>
+    <t>set</t>
   </si>
   <si>
-    <t>Token Jacket
-Material: Microfiber
-Sizes: XS to XXL
-Color</t>
+    <t>WIDE SCREEN 65" TV DISPLAY LED SMART TV, 65"
+Resolution: 3840x2160, 4K UHD
+Wides</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Procurement of  Roll-out of PDEA Operations and Report Management Information System (PORMIS) for PDEA Region IV-A on March 18 to 20, 2020 </t>
+    <t xml:space="preserve">Procurement of  Monitor for the audio-video conferencing as part of the MITHI Approved 2020 ISP Funded ICT Projects.   </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1544,12 +1543,12 @@
         <v>22</v>
       </c>
       <c r="D12" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="32"/>
       <c r="G12" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="34"/>
     </row>

--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -360,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="48">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -448,462 +448,33 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -925,104 +496,11 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1536,319 +1014,319 @@
       <c r="A12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="28">
         <v>1</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28">
         <v>1</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="82"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="92"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="122"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="124"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="138"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="140"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="146"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="148"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="154"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="163" t="s">
+      <c r="B28" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="169"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="156"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="170"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="157"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="177"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="158"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="178"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="159"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="179"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="160"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
-      <c r="H33" s="180"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="181"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="183" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="185" t="s">
+      <c r="D34" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="186"/>
-      <c r="F34" s="188" t="s">
+      <c r="E34" s="43"/>
+      <c r="F34" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="189"/>
-      <c r="H34" s="191" t="s">
+      <c r="G34" s="43"/>
+      <c r="H34" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="161"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="184"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="187"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="192"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="199"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="198"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="200" t="s">
+      <c r="A37" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="207"/>
-      <c r="C37" s="203"/>
-      <c r="D37" s="201" t="s">
+      <c r="B37" s="47"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="204"/>
-      <c r="F37" s="202" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="205"/>
-      <c r="H37" s="206"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="208" t="s">
+      <c r="A38" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="214"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="209" t="s">
+      <c r="B38" s="47"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="211"/>
-      <c r="F38" s="209" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="212"/>
-      <c r="H38" s="213"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="215" t="s">
+      <c r="A39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="221"/>
-      <c r="C39" s="217"/>
-      <c r="D39" s="216"/>
-      <c r="E39" s="218"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="220"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="24"/>

--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t xml:space="preserve">Appendix 63
 </t>
@@ -45,7 +45,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-24</t>
+    <t>2020-015</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -78,21 +78,31 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>S334</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>WIDE SCREEN 65" TV DISPLAY LED SMART TV, 65"
-Resolution: 3840x2160, 4K UHD
-Wides</t>
+    <t>S629</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Cable Box </t>
+  </si>
+  <si>
+    <t>S631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Television Bracket </t>
+  </si>
+  <si>
+    <t>S614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension (3 gang, 6 meters) </t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Procurement of  Monitor for the audio-video conferencing as part of the MITHI Approved 2020 ISP Funded ICT Projects.   </t>
+    <t xml:space="preserve">Procurement of  Supplies to be used in Regional Office    </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -113,7 +123,7 @@
     <t>Printed Name:</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
+    <t>ELIAS F. FERNANDEZ JR.</t>
   </si>
   <si>
     <t>BEZALEEL O. SOLTURA</t>
@@ -533,6 +543,66 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -842,7 +912,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,33 +1091,53 @@
         <v>22</v>
       </c>
       <c r="D12" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="28">
         <v>1</v>
       </c>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="28">
+        <v>1</v>
+      </c>
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="28">
+        <v>15</v>
+      </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="28">
+        <v>15</v>
+      </c>
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:9">
@@ -1181,32 +1271,32 @@
       <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="33"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="34"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="37"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="34"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="C30" s="26"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -1226,7 +1316,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="34"/>
-      <c r="B32" s="25"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="26"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -1236,69 +1326,61 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="34"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="33"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="45" t="s">
-        <v>28</v>
-      </c>
+      <c r="A34" s="34"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="34"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="41"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="44"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="44"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="37"/>
+      <c r="D36" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="45" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="37"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="46" t="s">
@@ -1306,47 +1388,55 @@
       </c>
       <c r="B38" s="47"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="D38" s="14"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" s="47"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="E39" s="15"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="G39" s="15"/>
       <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="26"/>
+      <c r="A40" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="26"/>
+      <c r="A41" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="24"/>
@@ -3187,16 +3277,16 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:H29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:H31"/>
     <mergeCell ref="B32:H33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B34:H35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0.5" footer="0.5"/>

--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t xml:space="preserve">Appendix 63
 </t>
@@ -45,7 +45,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-015</t>
+    <t>2020-039</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -78,31 +78,31 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>S629</t>
+    <t>L009</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">TV Cable Box </t>
-  </si>
-  <si>
-    <t>S631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Television Bracket </t>
-  </si>
-  <si>
-    <t>S614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension (3 gang, 6 meters) </t>
+    <t xml:space="preserve">Globe Prepaid Card 300 </t>
+  </si>
+  <si>
+    <t>S983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Prepaid Card 300 </t>
+  </si>
+  <si>
+    <t>S984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Prepaid Card 300 </t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Procurement of  Supplies to be used in Regional Office    </t>
+    <t xml:space="preserve">Procurement of  For the internet connectivity of C/MLGOOs for May and June 2020 </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -123,7 +123,10 @@
     <t>Printed Name:</t>
   </si>
   <si>
-    <t>ELIAS F. FERNANDEZ JR.</t>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA, CESO IV</t>
   </si>
   <si>
     <t>BEZALEEL O. SOLTURA</t>
@@ -132,7 +135,10 @@
     <t>Designation:</t>
   </si>
   <si>
-    <t>OIC Regional Director</t>
+    <t>FAD Chief</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
   </si>
   <si>
     <t>Chief, GSS</t>
@@ -1091,12 +1097,12 @@
         <v>22</v>
       </c>
       <c r="D12" s="28">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="H12" s="32"/>
     </row>
@@ -1111,12 +1117,12 @@
         <v>24</v>
       </c>
       <c r="D13" s="28">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H13" s="32"/>
     </row>
@@ -1131,12 +1137,12 @@
         <v>26</v>
       </c>
       <c r="D14" s="28">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H14" s="32"/>
     </row>
@@ -1399,36 +1405,40 @@
         <v>34</v>
       </c>
       <c r="B39" s="47"/>
-      <c r="C39" s="37"/>
+      <c r="C39" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="D39" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="47"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="D40" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="37"/>

--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t xml:space="preserve">Appendix 63
 </t>
@@ -45,7 +45,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-039</t>
+    <t>2020-046</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -78,31 +78,127 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>L009</t>
+    <t>S016</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Globe Prepaid Card 300 </t>
-  </si>
-  <si>
-    <t>S983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart Prepaid Card 300 </t>
-  </si>
-  <si>
-    <t>S984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Prepaid Card 300 </t>
+    <t xml:space="preserve">signpen (black 0.5) </t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign Pen, Blue </t>
+  </si>
+  <si>
+    <t>E013</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 664 Black </t>
+  </si>
+  <si>
+    <t>E016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 664  Yellow </t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 664 Cyan </t>
+  </si>
+  <si>
+    <t>E015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 664 Magenta </t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Ink 790 - Black </t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Ink 790 - Cyan </t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Ink 790 - Yellow </t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Ink 790 - Magenta </t>
+  </si>
+  <si>
+    <t>S1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 001 Black </t>
+  </si>
+  <si>
+    <t>S1042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 001 Cyan </t>
+  </si>
+  <si>
+    <t>S1043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 001 Magenta </t>
+  </si>
+  <si>
+    <t>S1041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 001 Yellow </t>
+  </si>
+  <si>
+    <t>S1036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 003 Black </t>
+  </si>
+  <si>
+    <t>S1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 003 Cyan </t>
+  </si>
+  <si>
+    <t>S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 003 Magenta </t>
+  </si>
+  <si>
+    <t>S1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 003 Yellow </t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Procurement of  For the internet connectivity of C/MLGOOs for May and June 2020 </t>
+    <t xml:space="preserve">Procurement of  Procurement of Office Supplies to be used in Regional Office  </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -126,7 +222,7 @@
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO IV</t>
+    <t>ARIEL O. IGLESIA</t>
   </si>
   <si>
     <t>BEZALEEL O. SOLTURA</t>
@@ -152,7 +248,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -195,6 +291,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -319,9 +424,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -333,6 +435,9 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -376,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -461,32 +566,35 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -609,6 +717,456 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1087,366 +1645,516 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="28">
-        <v>196</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28">
-        <v>196</v>
-      </c>
-      <c r="H12" s="32"/>
+      <c r="D12" s="29">
+        <v>50</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="29">
+        <v>50</v>
+      </c>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="28">
-        <v>82</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28">
-        <v>82</v>
-      </c>
-      <c r="H13" s="32"/>
+      <c r="C13" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="29">
+        <v>100</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29">
+        <v>100</v>
+      </c>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="28">
-        <v>6</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28">
-        <v>6</v>
-      </c>
-      <c r="H14" s="32"/>
+      <c r="B14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="29">
+        <v>14</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="29">
+        <v>14</v>
+      </c>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="32"/>
+      <c r="A15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="29">
+        <v>7</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29">
+        <v>7</v>
+      </c>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="32"/>
+      <c r="A16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="29">
+        <v>7</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="29">
+        <v>7</v>
+      </c>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="32"/>
+      <c r="A17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="29">
+        <v>7</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="29">
+        <v>7</v>
+      </c>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="32"/>
+      <c r="A18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="29">
+        <v>14</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="29">
+        <v>14</v>
+      </c>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="32"/>
+      <c r="A19" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="29">
+        <v>7</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="29">
+        <v>7</v>
+      </c>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="32"/>
+      <c r="A20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="29">
+        <v>7</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="29">
+        <v>7</v>
+      </c>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="32"/>
+      <c r="A21" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="29">
+        <v>7</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="29">
+        <v>7</v>
+      </c>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="28"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="32"/>
+      <c r="A22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="29">
+        <v>2</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="29">
+        <v>2</v>
+      </c>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="32"/>
+      <c r="A23" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="29">
+        <v>1</v>
+      </c>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="32"/>
+      <c r="A24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="29">
+        <v>1</v>
+      </c>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="28"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="32"/>
+      <c r="A25" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="29">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="29">
+        <v>1</v>
+      </c>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="32"/>
+      <c r="A26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="29">
+        <v>14</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="29">
+        <v>14</v>
+      </c>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="28"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="32"/>
+      <c r="A27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29">
+        <v>7</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="29">
+        <v>7</v>
+      </c>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="32"/>
+      <c r="A28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="29">
+        <v>7</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="29">
+        <v>7</v>
+      </c>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="28"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="32"/>
+      <c r="A29" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="29">
+        <v>7</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="29">
+        <v>7</v>
+      </c>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>28</v>
+      <c r="A30" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="33"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="34"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="34"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="26"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="34"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="37"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="34"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="34"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="33"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="45" t="s">
-        <v>32</v>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="46" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="34"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="25"/>
-      <c r="C37" s="41"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="44"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="33"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="37"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>36</v>
+      <c r="A39" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="E39" s="15"/>
-      <c r="F39" s="29" t="s">
-        <v>37</v>
+      <c r="F39" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="G39" s="15"/>
-      <c r="H39" s="37"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="37" t="s">
-        <v>39</v>
+      <c r="A40" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="14" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G40" s="15"/>
-      <c r="H40" s="37"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="37"/>
+      <c r="A41" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="37"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="24"/>

--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t xml:space="preserve">Appendix 63
 </t>
@@ -33,9 +33,6 @@
     <t>Division :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
     <t>Responsibility Center Code :</t>
   </si>
   <si>
@@ -45,7 +42,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-046</t>
+    <t>2020-047</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -78,129 +75,18 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signpen (black 0.5) </t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign Pen, Blue </t>
-  </si>
-  <si>
-    <t>E013</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 664 Black </t>
-  </si>
-  <si>
-    <t>E016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 664  Yellow </t>
-  </si>
-  <si>
-    <t>E014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 664 Cyan </t>
-  </si>
-  <si>
-    <t>E015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 664 Magenta </t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Ink 790 - Black </t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Ink 790 - Cyan </t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Ink 790 - Yellow </t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Ink 790 - Magenta </t>
-  </si>
-  <si>
-    <t>S1040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 001 Black </t>
-  </si>
-  <si>
-    <t>S1042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 001 Cyan </t>
-  </si>
-  <si>
-    <t>S1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 001 Magenta </t>
-  </si>
-  <si>
-    <t>S1041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 001 Yellow </t>
-  </si>
-  <si>
-    <t>S1036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 003 Black </t>
-  </si>
-  <si>
-    <t>S1038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 003 Cyan </t>
-  </si>
-  <si>
-    <t>S1039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 003 Magenta </t>
-  </si>
-  <si>
-    <t>S1037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 003 Yellow </t>
+    <t>S780</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Meals- Conduct of Orientation on BIR Requirements and Processes Concerning Personnel under Contract of Services and Job Order Meal (AM Snacks and Lunch)</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Procurement of  Procurement of Office Supplies to be used in Regional Office  </t>
-  </si>
-  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -219,9 +105,6 @@
     <t>Printed Name:</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
     <t>ARIEL O. IGLESIA</t>
   </si>
   <si>
@@ -229,9 +112,6 @@
   </si>
   <si>
     <t>Designation:</t>
-  </si>
-  <si>
-    <t>FAD Chief</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -481,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -578,6 +458,18 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -589,12 +481,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -657,516 +543,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1476,7 +852,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1574,587 +950,409 @@
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:9" customHeight="1" ht="16.5">
       <c r="A9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>9</v>
       </c>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:9" customHeight="1" ht="15.75">
       <c r="A10" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:9" customHeight="1" ht="15.75">
       <c r="A11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="29">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="29">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="29">
-        <v>100</v>
-      </c>
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="29">
-        <v>100</v>
-      </c>
-      <c r="H13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="29">
-        <v>14</v>
-      </c>
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="29">
-        <v>14</v>
-      </c>
-      <c r="H14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="29">
-        <v>7</v>
-      </c>
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="29">
-        <v>7</v>
-      </c>
-      <c r="H15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="29">
-        <v>7</v>
-      </c>
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="29">
-        <v>7</v>
-      </c>
-      <c r="H16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="29">
-        <v>7</v>
-      </c>
+      <c r="A17" s="31"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="29">
-        <v>7</v>
-      </c>
-      <c r="H17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="29">
-        <v>14</v>
-      </c>
+      <c r="A18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="29">
-        <v>14</v>
-      </c>
-      <c r="H18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="29">
-        <v>7</v>
-      </c>
+      <c r="A19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="29">
-        <v>7</v>
-      </c>
-      <c r="H19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="29">
-        <v>7</v>
-      </c>
+      <c r="A20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="29">
-        <v>7</v>
-      </c>
-      <c r="H20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="29">
-        <v>7</v>
-      </c>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="29">
-        <v>7</v>
-      </c>
-      <c r="H21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="29">
-        <v>2</v>
-      </c>
+      <c r="A22" s="31"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="29">
-        <v>2</v>
-      </c>
-      <c r="H22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="29">
-        <v>1</v>
-      </c>
+      <c r="A23" s="31"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="29">
-        <v>1</v>
-      </c>
-      <c r="H23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="29">
-        <v>1</v>
-      </c>
+      <c r="A24" s="31"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="29">
-        <v>1</v>
-      </c>
-      <c r="H24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="29">
-        <v>1</v>
-      </c>
+      <c r="A25" s="31"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="29">
-        <v>1</v>
-      </c>
-      <c r="H25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="29">
-        <v>14</v>
-      </c>
+      <c r="A26" s="31"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="29">
-        <v>14</v>
-      </c>
-      <c r="H26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="29">
-        <v>7</v>
-      </c>
+      <c r="A27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="29">
-        <v>7</v>
-      </c>
-      <c r="H27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="29">
-        <v>7</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="29">
-        <v>7</v>
-      </c>
-      <c r="H28" s="30"/>
+      <c r="A28" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="29">
-        <v>7</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="29">
-        <v>7</v>
-      </c>
-      <c r="H29" s="30"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>60</v>
-      </c>
+      <c r="A30" s="37"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="26"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="32"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="33"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="38"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="33"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="32"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="33"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="38"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="33"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="32"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="46"/>
+      <c r="H34" s="48" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="33"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="32"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="46" t="s">
-        <v>64</v>
-      </c>
+      <c r="A36" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="33"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="32"/>
+      <c r="A37" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>68</v>
-      </c>
+      <c r="A39" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="38"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="38"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="38"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="24"/>
@@ -3995,16 +3193,16 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:H29"/>
     <mergeCell ref="B30:H31"/>
     <mergeCell ref="B32:H33"/>
-    <mergeCell ref="B34:H35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0.5" footer="0.5"/>

--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t xml:space="preserve">Appendix 63
 </t>
@@ -33,6 +33,9 @@
     <t>Division :</t>
   </si>
   <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
     <t>Responsibility Center Code :</t>
   </si>
   <si>
@@ -42,7 +45,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-047</t>
+    <t>2020-044</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -75,18 +78,27 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>S780</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>Meals- Conduct of Orientation on BIR Requirements and Processes Concerning Personnel under Contract of Services and Job Order Meal (AM Snacks and Lunch)</t>
+    <t>S1033</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiod Mic Condenser, 20-20,000Hz Frequency Open Circuit Sensitivity-33dB (22.4mV) re 1V at 1 Pa), Maximum input sound level (148 dB SPL, 1 kHz at 1% T.H.D.; 158 dB SPL, with 10 dB pad-nominal), output connector (Integral3-pin XLRM-type) </t>
+  </si>
+  <si>
+    <t>S1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB Streaming Podcast PC Microphone, SUDOTACK professional 192 kHz/24bit studio cardiod Condenser Mic Kit with sound card Boom Arm Shock Mount Pop Filter  </t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
+    <t>Procurement of  2nd Quarter GFPS Meeting</t>
+  </si>
+  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -105,6 +117,9 @@
     <t>Printed Name:</t>
   </si>
   <si>
+    <t>JAY-AR T. BELTRAN</t>
+  </si>
+  <si>
     <t>ARIEL O. IGLESIA</t>
   </si>
   <si>
@@ -112,6 +127,9 @@
   </si>
   <si>
     <t>Designation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OIC-LGCDD Chief</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -543,6 +561,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="142875" cy="142875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -852,7 +900,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -950,103 +998,115 @@
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:9" customHeight="1" ht="16.5">
       <c r="A9" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:9" customHeight="1" ht="15.75">
       <c r="A10" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:9" customHeight="1" ht="15.75">
       <c r="A11" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="H11" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="35"/>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="31"/>
@@ -1189,56 +1249,58 @@
       <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="37"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="36"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="37"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="40"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="37"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="36"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="37"/>
@@ -1251,98 +1313,102 @@
       <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="48" t="s">
-        <v>26</v>
-      </c>
+      <c r="A34" s="37"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="37"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="36"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="48" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="40"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B37" s="50"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="32" t="s">
-        <v>29</v>
-      </c>
+      <c r="D37" s="14"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="32" t="s">
-        <v>30</v>
-      </c>
+      <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="50"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="14" t="s">
-        <v>32</v>
+      <c r="C38" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="14" t="s">
-        <v>33</v>
+      <c r="F38" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="50"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="E39" s="15"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="G39" s="15"/>
       <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="26"/>
+      <c r="A40" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="24"/>
@@ -3193,16 +3259,16 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:H29"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="B32:H33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:H30"/>
+    <mergeCell ref="B31:H32"/>
+    <mergeCell ref="B33:H34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0.5" footer="0.5"/>

--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t xml:space="preserve">Appendix 63
 </t>
@@ -33,7 +33,7 @@
     <t>Division :</t>
   </si>
   <si>
-    <t>LGCDD</t>
+    <t>FAD</t>
   </si>
   <si>
     <t>Responsibility Center Code :</t>
@@ -45,7 +45,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-044</t>
+    <t>2020-01</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -78,25 +78,24 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>S1033</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiod Mic Condenser, 20-20,000Hz Frequency Open Circuit Sensitivity-33dB (22.4mV) re 1V at 1 Pa), Maximum input sound level (148 dB SPL, 1 kHz at 1% T.H.D.; 158 dB SPL, with 10 dB pad-nominal), output connector (Integral3-pin XLRM-type) </t>
-  </si>
-  <si>
-    <t>S1034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB Streaming Podcast PC Microphone, SUDOTACK professional 192 kHz/24bit studio cardiod Condenser Mic Kit with sound card Boom Arm Shock Mount Pop Filter  </t>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>Sack Day 1: 
+AM Snacks, Lunch and PM Snacks for 10pax
+Dinner for 2pax
+Day 2: 
+Breakfast for 2pax
+AM Snacks, Lunch and PM Snacks for 10pax</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Procurement of  2nd Quarter GFPS Meeting</t>
+    <t xml:space="preserve">Procurement of   Meals for the Training on Installation and Configuration of IP Phones for DILG IV-A Operations Center (OPCEN)    </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -117,7 +116,7 @@
     <t>Printed Name:</t>
   </si>
   <si>
-    <t>JAY-AR T. BELTRAN</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>ARIEL O. IGLESIA</t>
@@ -129,7 +128,7 @@
     <t>Designation:</t>
   </si>
   <si>
-    <t xml:space="preserve"> OIC-LGCDD Chief</t>
+    <t>Chief, FAD</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -561,36 +560,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -900,7 +869,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1089,24 +1058,14 @@
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="29">
-        <v>1</v>
-      </c>
-      <c r="H13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="31"/>
@@ -1249,58 +1208,58 @@
       <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="31"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="35"/>
+      <c r="A28" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="36"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="37"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="40"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="37"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="36"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="37"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="40"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="37"/>
@@ -1313,102 +1272,102 @@
       <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="37"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="36"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="46"/>
+      <c r="H34" s="48" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="45" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="37"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="36"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="G37" s="15"/>
       <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B38" s="50"/>
       <c r="C38" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="32" t="s">
-        <v>35</v>
+      <c r="F38" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="50"/>
-      <c r="C39" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="40"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="24"/>
@@ -3259,16 +3218,16 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:H30"/>
-    <mergeCell ref="B31:H32"/>
-    <mergeCell ref="B33:H34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="F35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:H29"/>
+    <mergeCell ref="B30:H31"/>
+    <mergeCell ref="B32:H33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0.5" footer="0.5"/>
